--- a/PrimesGaps-C/benchmarks/Benchmark.xlsx
+++ b/PrimesGaps-C/benchmarks/Benchmark.xlsx
@@ -279,25 +279,25 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="1">
-                  <c:v>6.2609235999999999</c:v>
+                  <c:v>9.0377326999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9381274333333334</c:v>
+                  <c:v>6.0820851000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0168717000000003</c:v>
+                  <c:v>4.5986469166666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4195206333333332</c:v>
+                  <c:v>3.6840985333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0297782</c:v>
+                  <c:v>3.1036805833333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7733262000000001</c:v>
+                  <c:v>2.6522405999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.574179</c:v>
+                  <c:v>2.32171715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -376,28 +376,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>11.87040575</c:v>
+                  <c:v>18.008446499999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9352028749999999</c:v>
+                  <c:v>9.004223249999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9568019166666666</c:v>
+                  <c:v>6.0028154999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9676014374999999</c:v>
+                  <c:v>4.5021116249999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3740811499999999</c:v>
+                  <c:v>3.6016892999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9784009583333333</c:v>
+                  <c:v>3.0014077499999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6957722499999999</c:v>
+                  <c:v>2.5726352142857141</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.48380071875</c:v>
+                  <c:v>2.2510558124999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A18:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,12 +1508,12 @@
         <v>1</v>
       </c>
       <c r="C19" s="4">
-        <v>712.22434499999997</v>
+        <v>1080.5067899999999</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
         <f>C19/60</f>
-        <v>11.87040575</v>
+        <v>18.008446499999998</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>8</v>
@@ -1525,15 +1525,15 @@
         <v>2</v>
       </c>
       <c r="C20" s="2">
-        <v>375.655416</v>
+        <v>542.26396199999999</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ref="D20:D28" si="0">C20/60</f>
-        <v>6.2609235999999999</v>
+        <v>9.0377326999999994</v>
       </c>
       <c r="E20" s="3">
         <f>(E$19)/B20</f>
-        <v>5.9352028749999999</v>
+        <v>9.004223249999999</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -1543,15 +1543,15 @@
         <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>236.287646</v>
+        <v>364.92510600000003</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>3.9381274333333334</v>
+        <v>6.0820851000000005</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ref="E21:E26" si="1">(E$19)/B21</f>
-        <v>3.9568019166666666</v>
+        <v>6.0028154999999996</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -1561,15 +1561,15 @@
         <v>4</v>
       </c>
       <c r="C22" s="1">
-        <v>181.01230200000001</v>
+        <v>275.918815</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>3.0168717000000003</v>
+        <v>4.5986469166666666</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="1"/>
-        <v>2.9676014374999999</v>
+        <v>4.5021116249999995</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -1579,15 +1579,15 @@
         <v>5</v>
       </c>
       <c r="C23" s="1">
-        <v>145.17123799999999</v>
+        <v>221.04591199999999</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>2.4195206333333332</v>
+        <v>3.6840985333333331</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="1"/>
-        <v>2.3740811499999999</v>
+        <v>3.6016892999999994</v>
       </c>
       <c r="F23" s="5"/>
     </row>
@@ -1597,15 +1597,15 @@
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>121.786692</v>
+        <v>186.22083499999999</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>2.0297782</v>
+        <v>3.1036805833333334</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="1"/>
-        <v>1.9784009583333333</v>
+        <v>3.0014077499999998</v>
       </c>
       <c r="F24" s="5"/>
     </row>
@@ -1615,15 +1615,15 @@
         <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>106.39957200000001</v>
+        <v>159.13443599999999</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>1.7733262000000001</v>
+        <v>2.6522405999999998</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="1"/>
-        <v>1.6957722499999999</v>
+        <v>2.5726352142857141</v>
       </c>
       <c r="F25" s="5"/>
     </row>
@@ -1633,15 +1633,15 @@
         <v>8</v>
       </c>
       <c r="C26" s="1">
-        <v>94.450739999999996</v>
+        <v>139.30302900000001</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
-        <v>1.574179</v>
+        <v>2.32171715</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="1"/>
-        <v>1.48380071875</v>
+        <v>2.2510558124999998</v>
       </c>
       <c r="F26" s="5"/>
     </row>

--- a/PrimesGaps-C/benchmarks/Benchmark.xlsx
+++ b/PrimesGaps-C/benchmarks/Benchmark.xlsx
@@ -279,19 +279,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="1">
-                  <c:v>9.0377326999999994</c:v>
+                  <c:v>9.0889014333333318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0820851000000005</c:v>
+                  <c:v>6.1954691833333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5986469166666666</c:v>
+                  <c:v>4.56358175</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6840985333333331</c:v>
+                  <c:v>3.6889061833333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1036805833333334</c:v>
+                  <c:v>3.1639998166666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2.6522405999999998</c:v>
@@ -376,28 +376,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>18.008446499999998</c:v>
+                  <c:v>18.005962816666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.004223249999999</c:v>
+                  <c:v>9.0029814083333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0028154999999996</c:v>
+                  <c:v>6.0019876055555557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5021116249999995</c:v>
+                  <c:v>4.5014907041666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6016892999999994</c:v>
+                  <c:v>3.6011925633333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0014077499999998</c:v>
+                  <c:v>3.0009938027777778</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5726352142857141</c:v>
+                  <c:v>2.5722804023809522</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2510558124999998</c:v>
+                  <c:v>2.2507453520833334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A18:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,12 +1508,12 @@
         <v>1</v>
       </c>
       <c r="C19" s="4">
-        <v>1080.5067899999999</v>
+        <v>1080.357769</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
         <f>C19/60</f>
-        <v>18.008446499999998</v>
+        <v>18.005962816666667</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>8</v>
@@ -1525,15 +1525,15 @@
         <v>2</v>
       </c>
       <c r="C20" s="2">
-        <v>542.26396199999999</v>
+        <v>545.33408599999996</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ref="D20:D28" si="0">C20/60</f>
-        <v>9.0377326999999994</v>
+        <v>9.0889014333333318</v>
       </c>
       <c r="E20" s="3">
         <f>(E$19)/B20</f>
-        <v>9.004223249999999</v>
+        <v>9.0029814083333335</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -1543,15 +1543,15 @@
         <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>364.92510600000003</v>
+        <v>371.72815100000003</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>6.0820851000000005</v>
+        <v>6.1954691833333335</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ref="E21:E26" si="1">(E$19)/B21</f>
-        <v>6.0028154999999996</v>
+        <v>6.0019876055555557</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -1561,15 +1561,15 @@
         <v>4</v>
       </c>
       <c r="C22" s="1">
-        <v>275.918815</v>
+        <v>273.81490500000001</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>4.5986469166666666</v>
+        <v>4.56358175</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="1"/>
-        <v>4.5021116249999995</v>
+        <v>4.5014907041666667</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -1579,15 +1579,15 @@
         <v>5</v>
       </c>
       <c r="C23" s="1">
-        <v>221.04591199999999</v>
+        <v>221.334371</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>3.6840985333333331</v>
+        <v>3.6889061833333332</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="1"/>
-        <v>3.6016892999999994</v>
+        <v>3.6011925633333335</v>
       </c>
       <c r="F23" s="5"/>
     </row>
@@ -1597,15 +1597,15 @@
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>186.22083499999999</v>
+        <v>189.839989</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>3.1036805833333334</v>
+        <v>3.1639998166666667</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="1"/>
-        <v>3.0014077499999998</v>
+        <v>3.0009938027777778</v>
       </c>
       <c r="F24" s="5"/>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="E25" s="3">
         <f t="shared" si="1"/>
-        <v>2.5726352142857141</v>
+        <v>2.5722804023809522</v>
       </c>
       <c r="F25" s="5"/>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="E26" s="3">
         <f t="shared" si="1"/>
-        <v>2.2510558124999998</v>
+        <v>2.2507453520833334</v>
       </c>
       <c r="F26" s="5"/>
     </row>

--- a/PrimesGaps-C/benchmarks/Benchmark.xlsx
+++ b/PrimesGaps-C/benchmarks/Benchmark.xlsx
@@ -1467,7 +1467,7 @@
   <dimension ref="A18:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,11 +1653,11 @@
         <v>32</v>
       </c>
       <c r="C27" s="2">
-        <v>22961.895399000001</v>
+        <v>33723.286738000003</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>382.69825665000002</v>
+        <v>562.05477896666673</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="5" t="s">
@@ -1670,11 +1670,11 @@
         <v>64</v>
       </c>
       <c r="C28" s="1">
-        <v>11632.860207</v>
+        <v>17065.508472000001</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="0"/>
-        <v>193.88100345000001</v>
+        <v>284.42514120000004</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="5"/>
